--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50C3531-0C6B-43D6-A3ED-AA1F1EFB6267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70431735-42F1-47A1-B207-776124496ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Boneco</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>Fernando</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Miqueias</t>
+  </si>
+  <si>
+    <t>Marlin</t>
+  </si>
+  <si>
+    <t>Senna</t>
   </si>
 </sst>
 </file>
@@ -500,11 +515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1647,31 +1662,749 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
       <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70431735-42F1-47A1-B207-776124496ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62BA347-ABE2-415D-8A50-7D8FB569AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Boneco</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Senna</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Chelin</t>
   </si>
 </sst>
 </file>
@@ -515,11 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2406,6 +2412,774 @@
         <v>11</v>
       </c>
     </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62BA347-ABE2-415D-8A50-7D8FB569AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA18D147-4880-4AF1-A463-297F703998DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>Boneco</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Chelin</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
   </si>
 </sst>
 </file>
@@ -521,11 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3180,6 +3183,742 @@
         <v>4</v>
       </c>
     </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA18D147-4880-4AF1-A463-297F703998DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0593118-98CF-4761-B391-CC75DEADC67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
   <si>
     <t>Boneco</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Heider</t>
   </si>
 </sst>
 </file>
@@ -524,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3919,6 +3922,774 @@
         <v>4</v>
       </c>
     </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0593118-98CF-4761-B391-CC75DEADC67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD7C622-DF9D-4435-823D-14EA0012EE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
   <si>
     <t>Boneco</t>
   </si>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4690,6 +4690,742 @@
         <v>8</v>
       </c>
     </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>37</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>39</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD7C622-DF9D-4435-823D-14EA0012EE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD3EE61-4990-4EED-95BC-027F7C5F5157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="58">
   <si>
     <t>Boneco</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>Heider</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Paulinho</t>
   </si>
 </sst>
 </file>
@@ -527,11 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O152"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5426,6 +5438,710 @@
         <v>3</v>
       </c>
     </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>6</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>3</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>32</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>56</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>57</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>40</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173">
+        <v>4</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>51</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD3EE61-4990-4EED-95BC-027F7C5F5157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08AD515-592E-490A-A985-F48F18686A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="59">
   <si>
     <t>Boneco</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Paulinho</t>
+  </si>
+  <si>
+    <t>david</t>
   </si>
 </sst>
 </file>
@@ -539,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O174"/>
+  <dimension ref="A1:O197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6142,6 +6145,742 @@
         <v>10</v>
       </c>
     </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175">
+        <v>3</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>4</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>55</v>
+      </c>
+      <c r="C177">
+        <v>4</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+      <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>4</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>58</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+      <c r="F181">
+        <v>3</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>20</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+      <c r="F182">
+        <v>2</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>40</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>37</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>43</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>3</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>32</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>47</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>50</v>
+      </c>
+      <c r="C196">
+        <v>7</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>51</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08AD515-592E-490A-A985-F48F18686A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FB8E28-F31B-425F-92F2-D9C3B216D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="60">
   <si>
     <t>Boneco</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>david</t>
+  </si>
+  <si>
+    <t>Ranyeri</t>
   </si>
 </sst>
 </file>
@@ -542,11 +545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O197"/>
+  <dimension ref="A1:O220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I220" sqref="I220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6881,6 +6884,742 @@
         <v>10</v>
       </c>
     </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>37</v>
+      </c>
+      <c r="C198">
+        <v>4</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>4</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>3</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201">
+        <v>4</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>34</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>5</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>21</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>5</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>48</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>5</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>36</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>3</v>
+      </c>
+      <c r="F208">
+        <v>7</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>59</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>3</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <v>3</v>
+      </c>
+      <c r="F210">
+        <v>3</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>42</v>
+      </c>
+      <c r="C211">
+        <v>5</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>3</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>40</v>
+      </c>
+      <c r="C212">
+        <v>5</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <v>3</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>20</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>4</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>55</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>4</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>4</v>
+      </c>
+      <c r="F215">
+        <v>2</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>4</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>43</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>4</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>17</v>
+      </c>
+      <c r="C218">
+        <v>7</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>50</v>
+      </c>
+      <c r="C219">
+        <v>5</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>5</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>51</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>7</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FB8E28-F31B-425F-92F2-D9C3B216D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D58E851-A3C8-48F1-9B25-3C5F616D63A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="62">
   <si>
     <t>Boneco</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>Ranyeri</t>
+  </si>
+  <si>
+    <t>chelinho</t>
+  </si>
+  <si>
+    <t>Geovane</t>
   </si>
 </sst>
 </file>
@@ -545,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O220"/>
+  <dimension ref="A1:O242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I220" sqref="I220"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J242" sqref="J242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7620,6 +7626,710 @@
         <v>13</v>
       </c>
     </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>42</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <v>3</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>3</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>34</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223">
+        <v>3</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>3</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>39</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <v>3</v>
+      </c>
+      <c r="F225">
+        <v>5</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>2</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>60</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>59</v>
+      </c>
+      <c r="C228">
+        <v>4</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>3</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229">
+        <v>4</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>55</v>
+      </c>
+      <c r="C230">
+        <v>4</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>35</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>4</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>4</v>
+      </c>
+      <c r="F232">
+        <v>3</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>30</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>4</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>21</v>
+      </c>
+      <c r="C234">
+        <v>5</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>4</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>52</v>
+      </c>
+      <c r="C235">
+        <v>5</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>4</v>
+      </c>
+      <c r="F235">
+        <v>4</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>4</v>
+      </c>
+      <c r="F236">
+        <v>3</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>61</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>4</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>4</v>
+      </c>
+      <c r="F238">
+        <v>3</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>4</v>
+      </c>
+      <c r="F239">
+        <v>3</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>40</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <v>4</v>
+      </c>
+      <c r="F240">
+        <v>3</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>50</v>
+      </c>
+      <c r="C241">
+        <v>6</v>
+      </c>
+      <c r="D241">
+        <v>4</v>
+      </c>
+      <c r="E241">
+        <v>7</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>17</v>
+      </c>
+      <c r="C242">
+        <v>7</v>
+      </c>
+      <c r="D242">
+        <v>4</v>
+      </c>
+      <c r="E242">
+        <v>5</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D58E851-A3C8-48F1-9B25-3C5F616D63A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F9774F-FF6F-4387-BF38-680B234A47E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="62">
   <si>
     <t>Boneco</t>
   </si>
@@ -221,10 +221,10 @@
     <t>Ranyeri</t>
   </si>
   <si>
-    <t>chelinho</t>
+    <t>Geovane</t>
   </si>
   <si>
-    <t>Geovane</t>
+    <t>Jesse</t>
   </si>
 </sst>
 </file>
@@ -551,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O242"/>
+  <dimension ref="A1:O264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J242" sqref="J242"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C227">
         <v>4</v>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -8327,6 +8327,710 @@
         <v>1</v>
       </c>
       <c r="K242">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>35</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>4</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>4</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>4</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+      <c r="F245">
+        <v>2</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>4</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246">
+        <v>2</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>21</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>4</v>
+      </c>
+      <c r="E247">
+        <v>2</v>
+      </c>
+      <c r="F247">
+        <v>2</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>42</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>4</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>4</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+      <c r="D249">
+        <v>4</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>3</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>22</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+      <c r="D250">
+        <v>4</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>61</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+      <c r="D251">
+        <v>4</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+      <c r="D252">
+        <v>4</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>39</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>3</v>
+      </c>
+      <c r="E253">
+        <v>3</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>37</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+      <c r="D254">
+        <v>3</v>
+      </c>
+      <c r="E254">
+        <v>3</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>34</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>3</v>
+      </c>
+      <c r="E255">
+        <v>3</v>
+      </c>
+      <c r="F255">
+        <v>3</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>36</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>20</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
+      </c>
+      <c r="E257">
+        <v>3</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>3</v>
+      </c>
+      <c r="E258">
+        <v>2</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+      <c r="E259">
+        <v>2</v>
+      </c>
+      <c r="F259">
+        <v>2</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>32</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>3</v>
+      </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>3</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>40</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>3</v>
+      </c>
+      <c r="E262">
+        <v>2</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263">
+        <v>7</v>
+      </c>
+      <c r="E263">
+        <v>4</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>51</v>
+      </c>
+      <c r="C264">
+        <v>3</v>
+      </c>
+      <c r="D264">
+        <v>7</v>
+      </c>
+      <c r="E264">
+        <v>4</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
         <v>9</v>
       </c>
     </row>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F9774F-FF6F-4387-BF38-680B234A47E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C202B9C-69C3-4141-BBE5-44B56CCEB5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="64">
   <si>
     <t>Boneco</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>Jesse</t>
+  </si>
+  <si>
+    <t>jorge</t>
+  </si>
+  <si>
+    <t>Yuri</t>
   </si>
 </sst>
 </file>
@@ -551,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O264"/>
+  <dimension ref="A1:O286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A264" sqref="A264"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9034,6 +9040,710 @@
         <v>9</v>
       </c>
     </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>4</v>
+      </c>
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>62</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>4</v>
+      </c>
+      <c r="E266">
+        <v>2</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>32</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>4</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>4</v>
+      </c>
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>37</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>4</v>
+      </c>
+      <c r="E269">
+        <v>2</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>38</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>3</v>
+      </c>
+      <c r="E270">
+        <v>2</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>35</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>3</v>
+      </c>
+      <c r="E271">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>3</v>
+      </c>
+      <c r="E272">
+        <v>2</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>3</v>
+      </c>
+      <c r="E273">
+        <v>2</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>3</v>
+      </c>
+      <c r="E274">
+        <v>2</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>42</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <v>3</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276">
+        <v>3</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>47</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277">
+        <v>3</v>
+      </c>
+      <c r="F277">
+        <v>2</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>36</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>3</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>43</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="E279">
+        <v>3</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>7</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>3</v>
+      </c>
+      <c r="F280">
+        <v>4</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>55</v>
+      </c>
+      <c r="C281">
+        <v>7</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>3</v>
+      </c>
+      <c r="F281">
+        <v>4</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282">
+        <v>7</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>3</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>34</v>
+      </c>
+      <c r="C283">
+        <v>7</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>3</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>26</v>
+      </c>
+      <c r="C284">
+        <v>7</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>3</v>
+      </c>
+      <c r="F284">
+        <v>4</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>63</v>
+      </c>
+      <c r="C285">
+        <v>7</v>
+      </c>
+      <c r="D285">
+        <v>5</v>
+      </c>
+      <c r="E285">
+        <v>3</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+      <c r="D286">
+        <v>5</v>
+      </c>
+      <c r="E286">
+        <v>7</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C202B9C-69C3-4141-BBE5-44B56CCEB5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00D4772-2F4F-4EE9-8E1B-B1D6B11EC2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="68">
   <si>
     <t>Boneco</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>Yuri</t>
+  </si>
+  <si>
+    <t>Mumu</t>
+  </si>
+  <si>
+    <t>Lucian</t>
+  </si>
+  <si>
+    <t>Carioca</t>
+  </si>
+  <si>
+    <t>Isaac</t>
   </si>
 </sst>
 </file>
@@ -557,11 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O286"/>
+  <dimension ref="A1:O308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A287" sqref="A287"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K309" sqref="K309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9744,6 +9756,710 @@
         <v>17</v>
       </c>
     </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>34</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287">
+        <v>3</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287">
+        <v>3</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>42</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288">
+        <v>3</v>
+      </c>
+      <c r="E288">
+        <v>2</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>3</v>
+      </c>
+      <c r="D289">
+        <v>3</v>
+      </c>
+      <c r="E289">
+        <v>2</v>
+      </c>
+      <c r="F289">
+        <v>2</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>3</v>
+      </c>
+      <c r="D290">
+        <v>3</v>
+      </c>
+      <c r="E290">
+        <v>2</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+      <c r="D291">
+        <v>3</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>64</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>65</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>2</v>
+      </c>
+      <c r="E293">
+        <v>3</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+      <c r="E294">
+        <v>3</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>20</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+      <c r="E295">
+        <v>3</v>
+      </c>
+      <c r="F295">
+        <v>3</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>37</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+      <c r="E296">
+        <v>3</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>38</v>
+      </c>
+      <c r="C297">
+        <v>3</v>
+      </c>
+      <c r="D297">
+        <v>3</v>
+      </c>
+      <c r="E297">
+        <v>2</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>55</v>
+      </c>
+      <c r="C298">
+        <v>3</v>
+      </c>
+      <c r="D298">
+        <v>3</v>
+      </c>
+      <c r="E298">
+        <v>2</v>
+      </c>
+      <c r="F298">
+        <v>2</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+      <c r="D299">
+        <v>3</v>
+      </c>
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299">
+        <v>5</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>32</v>
+      </c>
+      <c r="C300">
+        <v>3</v>
+      </c>
+      <c r="D300">
+        <v>3</v>
+      </c>
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300">
+        <v>3</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>36</v>
+      </c>
+      <c r="C301">
+        <v>3</v>
+      </c>
+      <c r="D301">
+        <v>3</v>
+      </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>40</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>2</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>66</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="G303">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+      <c r="E304">
+        <v>2</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>61</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305">
+        <v>2</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>67</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+      <c r="F306">
+        <v>2</v>
+      </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>17</v>
+      </c>
+      <c r="C307">
+        <v>4</v>
+      </c>
+      <c r="D307">
+        <v>3</v>
+      </c>
+      <c r="E307">
+        <v>5</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>51</v>
+      </c>
+      <c r="C308">
+        <v>5</v>
+      </c>
+      <c r="D308">
+        <v>3</v>
+      </c>
+      <c r="E308">
+        <v>4</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>1</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00D4772-2F4F-4EE9-8E1B-B1D6B11EC2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6520A0-9F62-4DFD-B853-CC50A3505FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,8 +572,8 @@
   <dimension ref="A1:O308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K309" sqref="K309"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J302" sqref="J302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J302">
         <v>0</v>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6520A0-9F62-4DFD-B853-CC50A3505FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796BABEF-2BC3-4AAD-8DDB-792EF62988F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="72">
   <si>
     <t>Boneco</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>Isaac</t>
+  </si>
+  <si>
+    <t>Leandrao</t>
+  </si>
+  <si>
+    <t>Babão</t>
+  </si>
+  <si>
+    <t>Fabinho</t>
+  </si>
+  <si>
+    <t>Iuri</t>
   </si>
 </sst>
 </file>
@@ -569,11 +581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O308"/>
+  <dimension ref="A1:O331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J302" sqref="J302"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C331" sqref="C331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10460,6 +10472,742 @@
         <v>10</v>
       </c>
     </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>42</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>6</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>6</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>1</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>40</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311">
+        <v>6</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>20</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>6</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>52</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>6</v>
+      </c>
+      <c r="F313">
+        <v>2</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+      <c r="E314">
+        <v>5</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>36</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+      <c r="E315">
+        <v>5</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>60</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+      <c r="E316">
+        <v>5</v>
+      </c>
+      <c r="F316">
+        <v>3</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>37</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+      <c r="E317">
+        <v>5</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>38</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>2</v>
+      </c>
+      <c r="E318">
+        <v>5</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>26</v>
+      </c>
+      <c r="C319">
+        <v>12</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>3</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>21</v>
+      </c>
+      <c r="C320">
+        <v>12</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320">
+        <v>7</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>68</v>
+      </c>
+      <c r="C321">
+        <v>12</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>3</v>
+      </c>
+      <c r="G321">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>69</v>
+      </c>
+      <c r="C322">
+        <v>12</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>3</v>
+      </c>
+      <c r="G322">
+        <v>1</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>55</v>
+      </c>
+      <c r="C323">
+        <v>12</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <v>5</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>70</v>
+      </c>
+      <c r="C324">
+        <v>4</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>5</v>
+      </c>
+      <c r="F324">
+        <v>3</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>47</v>
+      </c>
+      <c r="C325">
+        <v>4</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>5</v>
+      </c>
+      <c r="F325">
+        <v>2</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>35</v>
+      </c>
+      <c r="C326">
+        <v>4</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>5</v>
+      </c>
+      <c r="F326">
+        <v>2</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327">
+        <v>4</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>5</v>
+      </c>
+      <c r="F327">
+        <v>2</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328">
+        <v>4</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>5</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>17</v>
+      </c>
+      <c r="C329">
+        <v>4</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+      <c r="E329">
+        <v>8</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>51</v>
+      </c>
+      <c r="C330">
+        <v>12</v>
+      </c>
+      <c r="D330">
+        <v>2</v>
+      </c>
+      <c r="E330">
+        <v>2</v>
+      </c>
+      <c r="F330">
+        <v>2</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+      <c r="K330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>71</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>6</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>1</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796BABEF-2BC3-4AAD-8DDB-792EF62988F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D09AF0-84F2-468D-AF99-DC31D84D9E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="75">
   <si>
     <t>Boneco</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>Iuri</t>
+  </si>
+  <si>
+    <t>Cristiano</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>Neneca</t>
   </si>
 </sst>
 </file>
@@ -581,11 +590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O331"/>
+  <dimension ref="A1:O353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C331" sqref="C331"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K354" sqref="K354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11208,6 +11217,710 @@
         <v>12</v>
       </c>
     </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>4</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>3</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>37</v>
+      </c>
+      <c r="C333">
+        <v>4</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>3</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>42</v>
+      </c>
+      <c r="C334">
+        <v>4</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>3</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>55</v>
+      </c>
+      <c r="C335">
+        <v>4</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>3</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336">
+        <v>4</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>3</v>
+      </c>
+      <c r="F336">
+        <v>3</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337">
+        <v>5</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>3</v>
+      </c>
+      <c r="F337">
+        <v>2</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338">
+        <v>5</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>3</v>
+      </c>
+      <c r="F338">
+        <v>2</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>39</v>
+      </c>
+      <c r="C339">
+        <v>5</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339">
+        <v>3</v>
+      </c>
+      <c r="F339">
+        <v>2</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>5</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>3</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>72</v>
+      </c>
+      <c r="C341">
+        <v>5</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>3</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>4</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>60</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>4</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>43</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>4</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>32</v>
+      </c>
+      <c r="C345">
+        <v>2</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>4</v>
+      </c>
+      <c r="F345">
+        <v>2</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>1</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>20</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+      <c r="E346">
+        <v>4</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>73</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347">
+        <v>3</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+      <c r="G347">
+        <v>1</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348">
+        <v>3</v>
+      </c>
+      <c r="F348">
+        <v>3</v>
+      </c>
+      <c r="G348">
+        <v>1</v>
+      </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>70</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>3</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>47</v>
+      </c>
+      <c r="C350">
+        <v>2</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>3</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>21</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>3</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>17</v>
+      </c>
+      <c r="C352">
+        <v>9</v>
+      </c>
+      <c r="D352">
+        <v>2</v>
+      </c>
+      <c r="E352">
+        <v>4</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>1</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>74</v>
+      </c>
+      <c r="C353">
+        <v>4</v>
+      </c>
+      <c r="D353">
+        <v>2</v>
+      </c>
+      <c r="E353">
+        <v>9</v>
+      </c>
+      <c r="F353">
+        <v>1</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D09AF0-84F2-468D-AF99-DC31D84D9E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECFADB4-193D-4495-8915-0DA628A4E59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294912054" uniqueCount="73">
   <si>
     <t>Boneco</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Neneca</t>
+  </si>
+  <si>
+    <t>Davi</t>
   </si>
 </sst>
 </file>
@@ -590,11 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O353"/>
+  <dimension ref="A1:O376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K354" sqref="K354"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J377" sqref="J377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11921,6 +11924,742 @@
         <v>13</v>
       </c>
     </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>37</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354">
+        <v>5</v>
+      </c>
+      <c r="F354">
+        <v>2</v>
+      </c>
+      <c r="G354">
+        <v>1</v>
+      </c>
+      <c r="H354">
+        <v>0</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>70</v>
+      </c>
+      <c r="C355">
+        <v>3</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>5</v>
+      </c>
+      <c r="F355">
+        <v>2</v>
+      </c>
+      <c r="G355">
+        <v>1</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>20</v>
+      </c>
+      <c r="C356">
+        <v>3</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>5</v>
+      </c>
+      <c r="F356">
+        <v>1</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>3</v>
+      </c>
+      <c r="C357">
+        <v>3</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>5</v>
+      </c>
+      <c r="F357">
+        <v>2</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>47</v>
+      </c>
+      <c r="C358">
+        <v>3</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358">
+        <v>5</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358">
+        <v>1</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>39</v>
+      </c>
+      <c r="C359">
+        <v>4</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359">
+        <v>4</v>
+      </c>
+      <c r="F359">
+        <v>3</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>55</v>
+      </c>
+      <c r="C360">
+        <v>4</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>4</v>
+      </c>
+      <c r="F360">
+        <v>2</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>38</v>
+      </c>
+      <c r="C361">
+        <v>4</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>4</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>22</v>
+      </c>
+      <c r="C362">
+        <v>4</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>4</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>26</v>
+      </c>
+      <c r="C363">
+        <v>4</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>4</v>
+      </c>
+      <c r="F363">
+        <v>3</v>
+      </c>
+      <c r="G363">
+        <v>1</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>75</v>
+      </c>
+      <c r="C364">
+        <v>6</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>5</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>1</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>62</v>
+      </c>
+      <c r="C365">
+        <v>6</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>5</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365">
+        <v>1</v>
+      </c>
+      <c r="H365">
+        <v>1</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366">
+        <v>6</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>5</v>
+      </c>
+      <c r="F366">
+        <v>4</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>32</v>
+      </c>
+      <c r="C367">
+        <v>6</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>5</v>
+      </c>
+      <c r="F367">
+        <v>2</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>1</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>6</v>
+      </c>
+      <c r="C368">
+        <v>6</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>5</v>
+      </c>
+      <c r="F368">
+        <v>3</v>
+      </c>
+      <c r="G368">
+        <v>1</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>36</v>
+      </c>
+      <c r="C369">
+        <v>5</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>4</v>
+      </c>
+      <c r="F369">
+        <v>2</v>
+      </c>
+      <c r="G369">
+        <v>1</v>
+      </c>
+      <c r="H369">
+        <v>0</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370">
+        <v>5</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>4</v>
+      </c>
+      <c r="F370">
+        <v>3</v>
+      </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>42</v>
+      </c>
+      <c r="C371">
+        <v>5</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>4</v>
+      </c>
+      <c r="F371">
+        <v>3</v>
+      </c>
+      <c r="G371">
+        <v>1</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>5</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>4</v>
+      </c>
+      <c r="F372">
+        <v>2</v>
+      </c>
+      <c r="G372">
+        <v>1</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>35</v>
+      </c>
+      <c r="C373">
+        <v>5</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>4</v>
+      </c>
+      <c r="F373">
+        <v>1</v>
+      </c>
+      <c r="G373">
+        <v>1</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>17</v>
+      </c>
+      <c r="C374">
+        <v>10</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>5</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>1</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>50</v>
+      </c>
+      <c r="C375">
+        <v>5</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>6</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>1</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>65</v>
+      </c>
+      <c r="C376">
+        <v>5</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>6</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>1</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECFADB4-193D-4495-8915-0DA628A4E59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E735842-25AC-4DD3-AF74-91E89A28F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$395</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294912054" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="75">
   <si>
     <t>Boneco</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>Isaac</t>
-  </si>
-  <si>
-    <t>Leandrao</t>
   </si>
   <si>
     <t>Babão</t>
@@ -593,11 +590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O376"/>
+  <dimension ref="A1:O400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J377" sqref="J377"/>
+      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K395" sqref="K395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10870,7 +10867,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C321">
         <v>12</v>
@@ -10902,7 +10899,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C322">
         <v>12</v>
@@ -10966,7 +10963,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C324">
         <v>4</v>
@@ -11190,7 +11187,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -11510,7 +11507,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C341">
         <v>5</v>
@@ -11702,7 +11699,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C347">
         <v>2</v>
@@ -11766,7 +11763,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C349">
         <v>2</v>
@@ -11894,7 +11891,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C353">
         <v>4</v>
@@ -11958,7 +11955,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C355">
         <v>3</v>
@@ -12246,7 +12243,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C364">
         <v>6</v>
@@ -12660,8 +12657,776 @@
         <v>13</v>
       </c>
     </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>36</v>
+      </c>
+      <c r="C377">
+        <v>3</v>
+      </c>
+      <c r="D377">
+        <v>3</v>
+      </c>
+      <c r="E377">
+        <v>3</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
+      </c>
+      <c r="G377">
+        <v>1</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>40</v>
+      </c>
+      <c r="C378">
+        <v>3</v>
+      </c>
+      <c r="D378">
+        <v>3</v>
+      </c>
+      <c r="E378">
+        <v>3</v>
+      </c>
+      <c r="F378">
+        <v>1</v>
+      </c>
+      <c r="G378">
+        <v>1</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379">
+        <v>3</v>
+      </c>
+      <c r="D379">
+        <v>3</v>
+      </c>
+      <c r="E379">
+        <v>3</v>
+      </c>
+      <c r="F379">
+        <v>2</v>
+      </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>39</v>
+      </c>
+      <c r="C380">
+        <v>3</v>
+      </c>
+      <c r="D380">
+        <v>3</v>
+      </c>
+      <c r="E380">
+        <v>3</v>
+      </c>
+      <c r="F380">
+        <v>3</v>
+      </c>
+      <c r="G380">
+        <v>1</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>17</v>
+      </c>
+      <c r="C381">
+        <v>3</v>
+      </c>
+      <c r="D381">
+        <v>3</v>
+      </c>
+      <c r="E381">
+        <v>3</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>1</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>69</v>
+      </c>
+      <c r="C382">
+        <v>3</v>
+      </c>
+      <c r="D382">
+        <v>3</v>
+      </c>
+      <c r="E382">
+        <v>3</v>
+      </c>
+      <c r="F382">
+        <v>2</v>
+      </c>
+      <c r="G382">
+        <v>1</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>55</v>
+      </c>
+      <c r="C383">
+        <v>3</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>5</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>1</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>3</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>5</v>
+      </c>
+      <c r="F384">
+        <v>5</v>
+      </c>
+      <c r="G384">
+        <v>1</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>1</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385">
+        <v>3</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>5</v>
+      </c>
+      <c r="F385">
+        <v>2</v>
+      </c>
+      <c r="G385">
+        <v>1</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>44</v>
+      </c>
+      <c r="C386">
+        <v>3</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>5</v>
+      </c>
+      <c r="F386">
+        <v>2</v>
+      </c>
+      <c r="G386">
+        <v>1</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>3</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>5</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>3</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>5</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+      <c r="G388">
+        <v>1</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>21</v>
+      </c>
+      <c r="C389">
+        <v>6</v>
+      </c>
+      <c r="D389">
+        <v>2</v>
+      </c>
+      <c r="E389">
+        <v>2</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+      <c r="G389">
+        <v>1</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>32</v>
+      </c>
+      <c r="C390">
+        <v>6</v>
+      </c>
+      <c r="D390">
+        <v>2</v>
+      </c>
+      <c r="E390">
+        <v>2</v>
+      </c>
+      <c r="F390">
+        <v>3</v>
+      </c>
+      <c r="G390">
+        <v>1</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>47</v>
+      </c>
+      <c r="C391">
+        <v>6</v>
+      </c>
+      <c r="D391">
+        <v>2</v>
+      </c>
+      <c r="E391">
+        <v>2</v>
+      </c>
+      <c r="F391">
+        <v>2</v>
+      </c>
+      <c r="G391">
+        <v>1</v>
+      </c>
+      <c r="H391">
+        <v>1</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392">
+        <v>6</v>
+      </c>
+      <c r="D392">
+        <v>2</v>
+      </c>
+      <c r="E392">
+        <v>2</v>
+      </c>
+      <c r="F392">
+        <v>3</v>
+      </c>
+      <c r="G392">
+        <v>1</v>
+      </c>
+      <c r="H392">
+        <v>1</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>22</v>
+      </c>
+      <c r="C393">
+        <v>6</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+      <c r="E393">
+        <v>2</v>
+      </c>
+      <c r="F393">
+        <v>2</v>
+      </c>
+      <c r="G393">
+        <v>1</v>
+      </c>
+      <c r="H393">
+        <v>1</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>65</v>
+      </c>
+      <c r="C394">
+        <v>6</v>
+      </c>
+      <c r="D394">
+        <v>2</v>
+      </c>
+      <c r="E394">
+        <v>2</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+      <c r="H394">
+        <v>1</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>42</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+      <c r="D395">
+        <v>2</v>
+      </c>
+      <c r="E395">
+        <v>4</v>
+      </c>
+      <c r="F395">
+        <v>1</v>
+      </c>
+      <c r="G395">
+        <v>1</v>
+      </c>
+      <c r="H395">
+        <v>0</v>
+      </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>3</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396">
+        <v>2</v>
+      </c>
+      <c r="E396">
+        <v>4</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>1</v>
+      </c>
+      <c r="H396">
+        <v>0</v>
+      </c>
+      <c r="I396">
+        <v>1</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397">
+        <v>2</v>
+      </c>
+      <c r="D397">
+        <v>2</v>
+      </c>
+      <c r="E397">
+        <v>4</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>1</v>
+      </c>
+      <c r="H397">
+        <v>0</v>
+      </c>
+      <c r="I397">
+        <v>1</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>37</v>
+      </c>
+      <c r="C398">
+        <v>2</v>
+      </c>
+      <c r="D398">
+        <v>2</v>
+      </c>
+      <c r="E398">
+        <v>4</v>
+      </c>
+      <c r="F398">
+        <v>3</v>
+      </c>
+      <c r="G398">
+        <v>1</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
+      <c r="I398">
+        <v>1</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>38</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+      <c r="E399">
+        <v>4</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+      <c r="G399">
+        <v>1</v>
+      </c>
+      <c r="H399">
+        <v>0</v>
+      </c>
+      <c r="I399">
+        <v>1</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>50</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+      <c r="D400">
+        <v>2</v>
+      </c>
+      <c r="E400">
+        <v>4</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400">
+        <v>1</v>
+      </c>
+      <c r="H400">
+        <v>0</v>
+      </c>
+      <c r="I400">
+        <v>1</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K395" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E735842-25AC-4DD3-AF74-91E89A28F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A67AE2-8E9E-48DE-9C12-BF4ADBD0583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K395" sqref="K395"/>
+      <selection pane="bottomLeft" activeCell="D388" sqref="D388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13011,7 +13011,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C388">
         <v>3</v>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A67AE2-8E9E-48DE-9C12-BF4ADBD0583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0502E770-F472-4A06-8628-17F80A46B826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="76">
   <si>
     <t>Boneco</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Davi</t>
+  </si>
+  <si>
+    <t>João Vitor</t>
   </si>
 </sst>
 </file>
@@ -590,11 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O400"/>
+  <dimension ref="A1:O420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D388" sqref="D388"/>
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D421" sqref="D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13425,6 +13428,646 @@
         <v>8</v>
       </c>
     </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>29</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>4</v>
+      </c>
+      <c r="E401">
+        <v>2</v>
+      </c>
+      <c r="F401">
+        <v>1</v>
+      </c>
+      <c r="G401">
+        <v>1</v>
+      </c>
+      <c r="H401">
+        <v>0</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>37</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>4</v>
+      </c>
+      <c r="E402">
+        <v>2</v>
+      </c>
+      <c r="F402">
+        <v>2</v>
+      </c>
+      <c r="G402">
+        <v>1</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>56</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>4</v>
+      </c>
+      <c r="E403">
+        <v>2</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="G403">
+        <v>1</v>
+      </c>
+      <c r="H403">
+        <v>0</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>4</v>
+      </c>
+      <c r="E404">
+        <v>2</v>
+      </c>
+      <c r="F404">
+        <v>1</v>
+      </c>
+      <c r="G404">
+        <v>1</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>52</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>4</v>
+      </c>
+      <c r="E405">
+        <v>2</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+      <c r="G405">
+        <v>1</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>55</v>
+      </c>
+      <c r="C406">
+        <v>4</v>
+      </c>
+      <c r="D406">
+        <v>3</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406">
+        <v>5</v>
+      </c>
+      <c r="G406">
+        <v>1</v>
+      </c>
+      <c r="H406">
+        <v>1</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>4</v>
+      </c>
+      <c r="C407">
+        <v>4</v>
+      </c>
+      <c r="D407">
+        <v>3</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>2</v>
+      </c>
+      <c r="G407">
+        <v>1</v>
+      </c>
+      <c r="H407">
+        <v>1</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>36</v>
+      </c>
+      <c r="C408">
+        <v>4</v>
+      </c>
+      <c r="D408">
+        <v>3</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408">
+        <v>1</v>
+      </c>
+      <c r="H408">
+        <v>1</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409">
+        <v>4</v>
+      </c>
+      <c r="D409">
+        <v>3</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="F409">
+        <v>5</v>
+      </c>
+      <c r="G409">
+        <v>1</v>
+      </c>
+      <c r="H409">
+        <v>1</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>1</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>3</v>
+      </c>
+      <c r="C410">
+        <v>4</v>
+      </c>
+      <c r="D410">
+        <v>3</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410">
+        <v>1</v>
+      </c>
+      <c r="G410">
+        <v>1</v>
+      </c>
+      <c r="H410">
+        <v>1</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>75</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>4</v>
+      </c>
+      <c r="F411">
+        <v>3</v>
+      </c>
+      <c r="G411">
+        <v>1</v>
+      </c>
+      <c r="H411">
+        <v>0</v>
+      </c>
+      <c r="I411">
+        <v>1</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>22</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>4</v>
+      </c>
+      <c r="F412">
+        <v>2</v>
+      </c>
+      <c r="G412">
+        <v>1</v>
+      </c>
+      <c r="H412">
+        <v>0</v>
+      </c>
+      <c r="I412">
+        <v>1</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>1</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>4</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+      <c r="G413">
+        <v>1</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
+      </c>
+      <c r="I413">
+        <v>1</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>38</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414">
+        <v>4</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414">
+        <v>1</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
+      </c>
+      <c r="I414">
+        <v>1</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>4</v>
+      </c>
+      <c r="F415">
+        <v>1</v>
+      </c>
+      <c r="G415">
+        <v>1</v>
+      </c>
+      <c r="H415">
+        <v>0</v>
+      </c>
+      <c r="I415">
+        <v>1</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>7</v>
+      </c>
+      <c r="C416">
+        <v>3</v>
+      </c>
+      <c r="D416">
+        <v>4</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>1</v>
+      </c>
+      <c r="H416">
+        <v>0</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>21</v>
+      </c>
+      <c r="C417">
+        <v>3</v>
+      </c>
+      <c r="D417">
+        <v>4</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+      <c r="F417">
+        <v>2</v>
+      </c>
+      <c r="G417">
+        <v>1</v>
+      </c>
+      <c r="H417">
+        <v>0</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>47</v>
+      </c>
+      <c r="C418">
+        <v>3</v>
+      </c>
+      <c r="D418">
+        <v>4</v>
+      </c>
+      <c r="E418">
+        <v>1</v>
+      </c>
+      <c r="F418">
+        <v>2</v>
+      </c>
+      <c r="G418">
+        <v>1</v>
+      </c>
+      <c r="H418">
+        <v>0</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>69</v>
+      </c>
+      <c r="C419">
+        <v>3</v>
+      </c>
+      <c r="D419">
+        <v>4</v>
+      </c>
+      <c r="E419">
+        <v>1</v>
+      </c>
+      <c r="F419">
+        <v>3</v>
+      </c>
+      <c r="G419">
+        <v>1</v>
+      </c>
+      <c r="H419">
+        <v>0</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>42</v>
+      </c>
+      <c r="C420">
+        <v>3</v>
+      </c>
+      <c r="D420">
+        <v>4</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="F420">
+        <v>1</v>
+      </c>
+      <c r="G420">
+        <v>1</v>
+      </c>
+      <c r="H420">
+        <v>0</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K395" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0502E770-F472-4A06-8628-17F80A46B826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B742637-D22A-4238-AA58-43489D409327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$395</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$421</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="77">
   <si>
     <t>Boneco</t>
   </si>
@@ -227,9 +227,6 @@
     <t>Jesse</t>
   </si>
   <si>
-    <t>jorge</t>
-  </si>
-  <si>
     <t>Yuri</t>
   </si>
   <si>
@@ -267,6 +264,12 @@
   </si>
   <si>
     <t>João Vitor</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>joão</t>
   </si>
 </sst>
 </file>
@@ -593,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O420"/>
+  <dimension ref="A1:O442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D421" sqref="D421"/>
+      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A443" sqref="A443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9110,7 +9113,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -9718,7 +9721,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C285">
         <v>7</v>
@@ -9942,7 +9945,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C292">
         <v>2</v>
@@ -9974,7 +9977,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C293">
         <v>2</v>
@@ -10294,7 +10297,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -10390,7 +10393,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -10902,7 +10905,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C322">
         <v>12</v>
@@ -10966,7 +10969,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C324">
         <v>4</v>
@@ -11190,7 +11193,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -11510,7 +11513,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C341">
         <v>5</v>
@@ -11702,7 +11705,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C347">
         <v>2</v>
@@ -11766,7 +11769,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C349">
         <v>2</v>
@@ -11894,7 +11897,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C353">
         <v>4</v>
@@ -11958,7 +11961,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C355">
         <v>3</v>
@@ -12246,7 +12249,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C364">
         <v>6</v>
@@ -12278,7 +12281,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C365">
         <v>6</v>
@@ -12630,7 +12633,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C376">
         <v>5</v>
@@ -12822,7 +12825,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C382">
         <v>3</v>
@@ -13206,7 +13209,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C394">
         <v>6</v>
@@ -13750,7 +13753,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -14006,7 +14009,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C419">
         <v>3</v>
@@ -14068,8 +14071,712 @@
         <v>0</v>
       </c>
     </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>40</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421">
+        <v>2</v>
+      </c>
+      <c r="E421">
+        <v>3</v>
+      </c>
+      <c r="F421">
+        <v>1</v>
+      </c>
+      <c r="G421">
+        <v>1</v>
+      </c>
+      <c r="H421">
+        <v>0</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>52</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="D422">
+        <v>2</v>
+      </c>
+      <c r="E422">
+        <v>3</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+      <c r="G422">
+        <v>1</v>
+      </c>
+      <c r="H422">
+        <v>0</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+      <c r="K422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>22</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423">
+        <v>2</v>
+      </c>
+      <c r="E423">
+        <v>3</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>1</v>
+      </c>
+      <c r="H423">
+        <v>0</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>55</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424">
+        <v>2</v>
+      </c>
+      <c r="E424">
+        <v>3</v>
+      </c>
+      <c r="F424">
+        <v>5</v>
+      </c>
+      <c r="G424">
+        <v>1</v>
+      </c>
+      <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>32</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
+      <c r="E425">
+        <v>3</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>1</v>
+      </c>
+      <c r="H425">
+        <v>0</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>3</v>
+      </c>
+      <c r="C426">
+        <v>3</v>
+      </c>
+      <c r="D426">
+        <v>2</v>
+      </c>
+      <c r="E426">
+        <v>3</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>1</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>42</v>
+      </c>
+      <c r="C427">
+        <v>3</v>
+      </c>
+      <c r="D427">
+        <v>2</v>
+      </c>
+      <c r="E427">
+        <v>3</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>1</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>43</v>
+      </c>
+      <c r="C428">
+        <v>3</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+      <c r="E428">
+        <v>3</v>
+      </c>
+      <c r="F428">
+        <v>1</v>
+      </c>
+      <c r="G428">
+        <v>1</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>35</v>
+      </c>
+      <c r="C429">
+        <v>3</v>
+      </c>
+      <c r="D429">
+        <v>2</v>
+      </c>
+      <c r="E429">
+        <v>3</v>
+      </c>
+      <c r="F429">
+        <v>1</v>
+      </c>
+      <c r="G429">
+        <v>1</v>
+      </c>
+      <c r="H429">
+        <v>0</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>68</v>
+      </c>
+      <c r="C430">
+        <v>3</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+      <c r="E430">
+        <v>3</v>
+      </c>
+      <c r="F430">
+        <v>4</v>
+      </c>
+      <c r="G430">
+        <v>1</v>
+      </c>
+      <c r="H430">
+        <v>0</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>75</v>
+      </c>
+      <c r="C431">
+        <v>5</v>
+      </c>
+      <c r="D431">
+        <v>2</v>
+      </c>
+      <c r="E431">
+        <v>2</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>1</v>
+      </c>
+      <c r="H431">
+        <v>1</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432">
+        <v>5</v>
+      </c>
+      <c r="D432">
+        <v>2</v>
+      </c>
+      <c r="E432">
+        <v>2</v>
+      </c>
+      <c r="F432">
+        <v>2</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>1</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>37</v>
+      </c>
+      <c r="C433">
+        <v>5</v>
+      </c>
+      <c r="D433">
+        <v>2</v>
+      </c>
+      <c r="E433">
+        <v>2</v>
+      </c>
+      <c r="F433">
+        <v>3</v>
+      </c>
+      <c r="G433">
+        <v>1</v>
+      </c>
+      <c r="H433">
+        <v>1</v>
+      </c>
+      <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>5</v>
+      </c>
+      <c r="D434">
+        <v>2</v>
+      </c>
+      <c r="E434">
+        <v>2</v>
+      </c>
+      <c r="F434">
+        <v>1</v>
+      </c>
+      <c r="G434">
+        <v>1</v>
+      </c>
+      <c r="H434">
+        <v>1</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>36</v>
+      </c>
+      <c r="C435">
+        <v>5</v>
+      </c>
+      <c r="D435">
+        <v>2</v>
+      </c>
+      <c r="E435">
+        <v>2</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+      <c r="G435">
+        <v>1</v>
+      </c>
+      <c r="H435">
+        <v>1</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>38</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>4</v>
+      </c>
+      <c r="E436">
+        <v>2</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>1</v>
+      </c>
+      <c r="H436">
+        <v>0</v>
+      </c>
+      <c r="I436">
+        <v>1</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>76</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>4</v>
+      </c>
+      <c r="E437">
+        <v>2</v>
+      </c>
+      <c r="F437">
+        <v>1</v>
+      </c>
+      <c r="G437">
+        <v>1</v>
+      </c>
+      <c r="H437">
+        <v>0</v>
+      </c>
+      <c r="I437">
+        <v>1</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438">
+        <v>4</v>
+      </c>
+      <c r="E438">
+        <v>2</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438">
+        <v>1</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
+        <v>1</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>4</v>
+      </c>
+      <c r="E439">
+        <v>2</v>
+      </c>
+      <c r="F439">
+        <v>3</v>
+      </c>
+      <c r="G439">
+        <v>1</v>
+      </c>
+      <c r="H439">
+        <v>0</v>
+      </c>
+      <c r="I439">
+        <v>1</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>39</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>4</v>
+      </c>
+      <c r="E440">
+        <v>2</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>1</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+      <c r="I440">
+        <v>1</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>17</v>
+      </c>
+      <c r="C441">
+        <v>4</v>
+      </c>
+      <c r="D441">
+        <v>5</v>
+      </c>
+      <c r="E441">
+        <v>5</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+      <c r="G441">
+        <v>1</v>
+      </c>
+      <c r="H441">
+        <v>1</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>1</v>
+      </c>
+      <c r="K441">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>64</v>
+      </c>
+      <c r="C442">
+        <v>5</v>
+      </c>
+      <c r="D442">
+        <v>5</v>
+      </c>
+      <c r="E442">
+        <v>4</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+      <c r="G442">
+        <v>1</v>
+      </c>
+      <c r="H442">
+        <v>0</v>
+      </c>
+      <c r="I442">
+        <v>1</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K395" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K421" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2024_02.xlsx
+++ b/pelada_sabado_2024_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B742637-D22A-4238-AA58-43489D409327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F433DC92-5C2E-4BBC-BA30-6FC2ED0B76A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$446</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="77">
   <si>
     <t>Boneco</t>
   </si>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O442"/>
+  <dimension ref="A1:O463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A443" sqref="A443"/>
+      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L463" sqref="L463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14775,8 +14775,680 @@
         <v>10</v>
       </c>
     </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>32</v>
+      </c>
+      <c r="C443">
+        <v>4</v>
+      </c>
+      <c r="D443">
+        <v>3</v>
+      </c>
+      <c r="E443">
+        <v>2</v>
+      </c>
+      <c r="F443">
+        <v>2</v>
+      </c>
+      <c r="G443">
+        <v>1</v>
+      </c>
+      <c r="H443">
+        <v>1</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>73</v>
+      </c>
+      <c r="C444">
+        <v>4</v>
+      </c>
+      <c r="D444">
+        <v>3</v>
+      </c>
+      <c r="E444">
+        <v>2</v>
+      </c>
+      <c r="F444">
+        <v>1</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+      <c r="H444">
+        <v>1</v>
+      </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>37</v>
+      </c>
+      <c r="C445">
+        <v>4</v>
+      </c>
+      <c r="D445">
+        <v>3</v>
+      </c>
+      <c r="E445">
+        <v>2</v>
+      </c>
+      <c r="F445">
+        <v>3</v>
+      </c>
+      <c r="G445">
+        <v>1</v>
+      </c>
+      <c r="H445">
+        <v>1</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>40</v>
+      </c>
+      <c r="C446">
+        <v>4</v>
+      </c>
+      <c r="D446">
+        <v>3</v>
+      </c>
+      <c r="E446">
+        <v>2</v>
+      </c>
+      <c r="F446">
+        <v>3</v>
+      </c>
+      <c r="G446">
+        <v>1</v>
+      </c>
+      <c r="H446">
+        <v>1</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>1</v>
+      </c>
+      <c r="K446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>22</v>
+      </c>
+      <c r="C447">
+        <v>4</v>
+      </c>
+      <c r="D447">
+        <v>3</v>
+      </c>
+      <c r="E447">
+        <v>2</v>
+      </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>1</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>7</v>
+      </c>
+      <c r="C448">
+        <v>3</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448">
+        <v>4</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+      <c r="G448">
+        <v>1</v>
+      </c>
+      <c r="H448">
+        <v>0</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>3</v>
+      </c>
+      <c r="C449">
+        <v>3</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449">
+        <v>4</v>
+      </c>
+      <c r="F449">
+        <v>2</v>
+      </c>
+      <c r="G449">
+        <v>1</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>6</v>
+      </c>
+      <c r="C450">
+        <v>3</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>4</v>
+      </c>
+      <c r="F450">
+        <v>4</v>
+      </c>
+      <c r="G450">
+        <v>1</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>47</v>
+      </c>
+      <c r="C451">
+        <v>3</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451">
+        <v>4</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+      <c r="G451">
+        <v>1</v>
+      </c>
+      <c r="H451">
+        <v>0</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>36</v>
+      </c>
+      <c r="C452">
+        <v>3</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452">
+        <v>4</v>
+      </c>
+      <c r="F452">
+        <v>1</v>
+      </c>
+      <c r="G452">
+        <v>1</v>
+      </c>
+      <c r="H452">
+        <v>0</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>42</v>
+      </c>
+      <c r="C453">
+        <v>2</v>
+      </c>
+      <c r="D453">
+        <v>2</v>
+      </c>
+      <c r="E453">
+        <v>3</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
+      <c r="H453">
+        <v>0</v>
+      </c>
+      <c r="I453">
+        <v>1</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>59</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+      <c r="D454">
+        <v>2</v>
+      </c>
+      <c r="E454">
+        <v>3</v>
+      </c>
+      <c r="F454">
+        <v>2</v>
+      </c>
+      <c r="G454">
+        <v>1</v>
+      </c>
+      <c r="H454">
+        <v>0</v>
+      </c>
+      <c r="I454">
+        <v>1</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>55</v>
+      </c>
+      <c r="C455">
+        <v>2</v>
+      </c>
+      <c r="D455">
+        <v>2</v>
+      </c>
+      <c r="E455">
+        <v>3</v>
+      </c>
+      <c r="F455">
+        <v>2</v>
+      </c>
+      <c r="G455">
+        <v>1</v>
+      </c>
+      <c r="H455">
+        <v>0</v>
+      </c>
+      <c r="I455">
+        <v>1</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>35</v>
+      </c>
+      <c r="C456">
+        <v>2</v>
+      </c>
+      <c r="D456">
+        <v>2</v>
+      </c>
+      <c r="E456">
+        <v>3</v>
+      </c>
+      <c r="F456">
+        <v>0</v>
+      </c>
+      <c r="G456">
+        <v>1</v>
+      </c>
+      <c r="H456">
+        <v>0</v>
+      </c>
+      <c r="I456">
+        <v>1</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>38</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+      <c r="D457">
+        <v>2</v>
+      </c>
+      <c r="E457">
+        <v>3</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+      <c r="G457">
+        <v>1</v>
+      </c>
+      <c r="H457">
+        <v>0</v>
+      </c>
+      <c r="I457">
+        <v>1</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>5</v>
+      </c>
+      <c r="C458">
+        <v>4</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="E458">
+        <v>4</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+      <c r="G458">
+        <v>1</v>
+      </c>
+      <c r="H458">
+        <v>0</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>43</v>
+      </c>
+      <c r="C459">
+        <v>4</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="E459">
+        <v>4</v>
+      </c>
+      <c r="F459">
+        <v>0</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+      <c r="H459">
+        <v>0</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>4</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>4</v>
+      </c>
+      <c r="F460">
+        <v>1</v>
+      </c>
+      <c r="G460">
+        <v>1</v>
+      </c>
+      <c r="H460">
+        <v>0</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>4</v>
+      </c>
+      <c r="C461">
+        <v>4</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>4</v>
+      </c>
+      <c r="F461">
+        <v>4</v>
+      </c>
+      <c r="G461">
+        <v>1</v>
+      </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <v>4</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>4</v>
+      </c>
+      <c r="F462">
+        <v>2</v>
+      </c>
+      <c r="G462">
+        <v>1</v>
+      </c>
+      <c r="H462">
+        <v>0</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>17</v>
+      </c>
+      <c r="C463">
+        <v>9</v>
+      </c>
+      <c r="D463">
+        <v>3</v>
+      </c>
+      <c r="E463">
+        <v>4</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+      <c r="G463">
+        <v>1</v>
+      </c>
+      <c r="H463">
+        <v>1</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K421" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K446" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
